--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{343D8196-1BFA-40F3-A3C8-AF59A1237C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78942547-9499-47C8-8351-B5A1F32B229B}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{343D8196-1BFA-40F3-A3C8-AF59A1237C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{987A0CF9-9474-4A97-B34E-CCD7D056D3DC}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Trap</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -167,6 +163,10 @@
   </si>
   <si>
     <t>GitHub\Project_Advence\Assets\Resources\SPUM\SPUM_Units\Monster_Stage1_Phase1_Orc2.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;Type&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +535,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:K25" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A3:K25" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
@@ -1004,14 +1000,15 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="8" max="10" width="9" style="1"/>
@@ -1062,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1115,13 +1112,13 @@
         <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
@@ -1132,7 +1129,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
@@ -1156,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
@@ -1167,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
@@ -1191,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
@@ -1202,7 +1199,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1">
         <v>200</v>
@@ -1235,7 +1232,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1268,7 +1265,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>

--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{343D8196-1BFA-40F3-A3C8-AF59A1237C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{987A0CF9-9474-4A97-B34E-CCD7D056D3DC}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{343D8196-1BFA-40F3-A3C8-AF59A1237C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D53BE906-AEA8-4D4F-9964-20EE56BC8368}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
-    <sheet name="Define" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="Define" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="MonsterTable" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -64,10 +64,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Orc1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -102,42 +98,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>인덱스고유 값입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 스트링 데이터 입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum 몬스터 : Monster , 함정 : Trap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 체력 입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 공격력 입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터의 방어력 입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터를 죽일 시 드랍되는 EXP 수치입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터를 죽일 시 드랍되는 Gold 수치입니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>투사체 몬스터가 사용하는 Skill 입니다. SkillTable의 Index  값을 참조하여 가져옵니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Trap</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -167,6 +127,37 @@
   </si>
   <si>
     <t>enum&lt;Type&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESIGN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum 명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum 종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;Type&gt;</t>
+  </si>
+  <si>
+    <t>함정 타입을 구분하기 위한 Enum값 입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원거리 타입 몬스터를 구분하기 위한 Enum값 입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리 타입 몬스터를 구분하기 위한 Enum값 입니다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,7 +206,15 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -234,12 +233,73 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -248,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,14 +321,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="19">
     <dxf>
       <font>
         <b val="0"/>
@@ -522,6 +603,133 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top style="hair">
+          <color auto="1"/>
+        </top>
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="hair">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -535,7 +743,23 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AD971FE-E9D9-4304-AD63-B91A3BA2AB06}" name="표2_23" displayName="표2_23" ref="A2:C5" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A2:C5" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E93A175E-9C20-444E-90EA-E3C8EAFA298A}" name="Enum 명" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{402C608F-E3F3-4B58-A699-18ED284F2479}" name="enum 종류"/>
+    <tableColumn id="4" xr3:uid="{A1BD8B51-D258-4FF4-9AB7-EED31839F5D9}" name="설명" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:K25" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A3:K25" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
   <tableColumns count="11">
@@ -851,147 +1075,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C408E628-92AD-4660-AA65-B2EDABED9D78}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED869AD-81BF-445A-BFB6-9DFC29F70ECE}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="16384" width="8.75" style="4"/>
+    <col min="1" max="1" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="1" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="C4" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>27</v>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1000,7 +1155,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1059,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1100,25 +1255,25 @@
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
@@ -1126,10 +1281,10 @@
         <v>1010</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
@@ -1153,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
@@ -1161,10 +1316,10 @@
         <v>1011</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
@@ -1188,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
@@ -1196,10 +1351,10 @@
         <v>1012</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>200</v>
@@ -1229,10 +1384,10 @@
         <v>1013</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1262,10 +1417,10 @@
         <v>1014</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>

--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{343D8196-1BFA-40F3-A3C8-AF59A1237C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D53BE906-AEA8-4D4F-9964-20EE56BC8368}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B855EA77-51E7-43CA-BD13-BF39B48028CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="4" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,14 +118,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GitHub\Project_Advence\Assets\Resources\SPUM\SPUM_Units\Monster_Stage1_Phase1_Orc1.prefab"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GitHub\Project_Advence\Assets\Resources\SPUM\SPUM_Units\Monster_Stage1_Phase1_Orc2.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>enum&lt;Type&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -158,6 +150,18 @@
   </si>
   <si>
     <t>근거리 타입 몬스터를 구분하기 위한 Enum값 입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Stage1_Phase1_Orc1.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Stage1_Phase1_Orc2.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_Stage2_Phase1_AttackRedOrc.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1079,66 +1083,66 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1155,10 +1159,10 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
@@ -1167,11 +1171,11 @@
     <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="8" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="18.3125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="34.375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1206,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1214,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1241,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1276,7 +1280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
@@ -1308,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1011</v>
       </c>
@@ -1343,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1012</v>
       </c>
@@ -1377,9 +1381,11 @@
       <c r="J6" s="3">
         <v>10008</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+      <c r="K6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1013</v>
       </c>
@@ -1412,7 +1418,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1014</v>
       </c>
@@ -1445,7 +1451,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1455,7 +1461,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1465,7 +1471,7 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1475,7 +1481,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1485,7 +1491,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1495,7 +1501,7 @@
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1505,7 +1511,7 @@
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1515,7 +1521,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1525,7 +1531,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="17" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1535,7 +1541,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="18" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1545,7 +1551,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="19" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1555,7 +1561,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="20" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1565,7 +1571,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="21" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1575,7 +1581,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="22" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1585,7 +1591,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="23" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1595,7 +1601,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="24" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1605,7 +1611,7 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="25" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="C25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>

--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B855EA77-51E7-43CA-BD13-BF39B48028CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734B79DC-AD85-49F8-9601-BC420BAE4BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -162,6 +162,14 @@
   </si>
   <si>
     <t>Monster_Stage2_Phase1_AttackRedOrc.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundFireRed.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoundFireRed.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -764,8 +772,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:K25" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A3:K25" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:K8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A3:K8" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="9"/>
@@ -1156,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1416,7 +1424,9 @@
       <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1449,177 +1459,9 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" ht="11.25" x14ac:dyDescent="0.3">
-      <c r="C25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734B79DC-AD85-49F8-9601-BC420BAE4BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{734B79DC-AD85-49F8-9601-BC420BAE4BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02905B40-68B9-4877-9C9B-9C004E53738F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="4" state="hidden" r:id="rId1"/>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Orc1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -114,31 +110,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_Local</t>
+    <t>DESIGN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enum 명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum 종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>enum&lt;Type&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DESIGN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum 명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum 종류</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum&lt;Type&gt;</t>
   </si>
   <si>
     <t>함정 타입을 구분하기 위한 Enum값 입니다</t>
@@ -170,6 +158,18 @@
   </si>
   <si>
     <t>RoundFireRed.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;MonsterType&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -755,10 +755,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AD971FE-E9D9-4304-AD63-B91A3BA2AB06}" name="표2_23" displayName="표2_23" ref="A2:C5" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A2:C5" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
@@ -777,7 +773,7 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="Type" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="MonsterType" dataDxfId="8"/>
     <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="Attack" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="Defence" dataDxfId="5"/>
@@ -785,7 +781,7 @@
     <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{0FD9A524-D2B8-4291-9813-0D0344D525BE}" name="Score" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{E36DCC1B-0496-49B1-A70D-6806B2FDF9F6}" name="Skill" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="Monster_Local" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="Prefab" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1094,7 +1090,7 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="18" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="5" bestFit="1" customWidth="1"/>
@@ -1102,55 +1098,55 @@
     <col min="4" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="3" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>27</v>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="9"/>
       <c r="B4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="9"/>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1167,14 +1163,14 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
@@ -1183,7 +1179,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1218,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1226,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1253,7 +1249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1261,42 +1257,42 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="K3" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
@@ -1320,18 +1316,18 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A5" s="1">
         <v>1011</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
@@ -1355,18 +1351,18 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A6" s="1">
         <v>1012</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>200</v>
@@ -1390,18 +1386,18 @@
         <v>10008</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A7" s="1">
         <v>1013</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1425,18 +1421,18 @@
         <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
       <c r="A8" s="1">
         <v>1014</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1460,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{734B79DC-AD85-49F8-9601-BC420BAE4BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02905B40-68B9-4877-9C9B-9C004E53738F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{734B79DC-AD85-49F8-9601-BC420BAE4BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F27A5201-622E-49C7-9298-E71C52D64E59}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
@@ -169,7 +169,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab</t>
+    <t>PrefabPath</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -755,6 +755,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AD971FE-E9D9-4304-AD63-B91A3BA2AB06}" name="표2_23" displayName="표2_23" ref="A2:C5" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A2:C5" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
@@ -781,7 +785,7 @@
     <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="3"/>
     <tableColumn id="10" xr3:uid="{0FD9A524-D2B8-4291-9813-0D0344D525BE}" name="Score" dataDxfId="2"/>
     <tableColumn id="11" xr3:uid="{E36DCC1B-0496-49B1-A70D-6806B2FDF9F6}" name="Skill" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="Prefab" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="PrefabPath" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1162,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>

--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{734B79DC-AD85-49F8-9601-BC420BAE4BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F27A5201-622E-49C7-9298-E71C52D64E59}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F597D4-CAD6-4DDD-85EF-1F5E3AFAE2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="14565" yWindow="3270" windowWidth="20595" windowHeight="13260" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="4" state="hidden" r:id="rId1"/>
@@ -141,26 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_Stage1_Phase1_Orc1.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_Stage1_Phase1_Orc2.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_Stage2_Phase1_AttackRedOrc.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroundFireRed.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoundFireRed.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>enum&lt;MonsterType&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -170,6 +150,26 @@
   </si>
   <si>
     <t>PrefabPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/SPUM_Units/Monster_Stage1_Phase1_Orc1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/SPUM_Units/Monster_Stage1_Phase1_Orc2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/SPUM_Units/Monster_Stage2_Phase1_AttackRedOrc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundFireRed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoundFireRed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1094,7 +1094,7 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="5" bestFit="1" customWidth="1"/>
@@ -1102,7 +1102,7 @@
     <col min="4" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="11" t="s">
         <v>20</v>
@@ -1144,7 +1144,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
@@ -1166,24 +1166,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="8" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="34.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="47.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1226,7 +1226,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -1253,7 +1253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
@@ -1285,10 +1285,10 @@
         <v>15</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
@@ -1320,10 +1320,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1011</v>
       </c>
@@ -1355,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1012</v>
       </c>
@@ -1387,13 +1387,13 @@
         <v>10</v>
       </c>
       <c r="J6" s="3">
-        <v>10008</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1013</v>
       </c>
@@ -1425,10 +1425,10 @@
         <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1014</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F597D4-CAD6-4DDD-85EF-1F5E3AFAE2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A258D43-9531-4F32-A8D6-72C452EF8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="3270" windowWidth="20595" windowHeight="13260" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="4" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>RoundFireRed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orc_Boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/SPUM_Units/Monster_Stage1_Phase1_Boss</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -755,10 +767,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AD971FE-E9D9-4304-AD63-B91A3BA2AB06}" name="표2_23" displayName="표2_23" ref="A2:C5" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A2:C5" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
@@ -772,8 +780,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:K8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A3:K8" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:K9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A3:K9" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="9"/>
@@ -1094,15 +1102,15 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="5"/>
+    <col min="2" max="2" width="14.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
@@ -1113,7 +1121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -1124,7 +1132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
@@ -1135,7 +1143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9"/>
       <c r="B4" s="11" t="s">
         <v>20</v>
@@ -1144,7 +1152,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
       <c r="B5" s="11" t="s">
         <v>17</v>
@@ -1164,26 +1172,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="8" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="47.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1218,7 +1226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1253,7 +1261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1288,7 +1296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
@@ -1323,7 +1331,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1011</v>
       </c>
@@ -1358,7 +1366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1012</v>
       </c>
@@ -1393,7 +1401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1013</v>
       </c>
@@ -1428,7 +1436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1014</v>
       </c>
@@ -1461,6 +1469,41 @@
       </c>
       <c r="K8" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
+      </c>
+      <c r="F9" s="3">
+        <v>50</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>10008</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A258D43-9531-4F32-A8D6-72C452EF8570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCBDEC7-87CD-449B-92C2-C4E53A9BD917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="4" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -182,6 +182,14 @@
   </si>
   <si>
     <t>SPUM/SPUM_Units/Monster_Stage1_Phase1_Boss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeAttack</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -369,11 +377,33 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -424,6 +454,25 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
         <color rgb="FF000000"/>
         <name val="굴림"/>
         <family val="3"/>
@@ -501,25 +550,6 @@
         <vertAlign val="baseline"/>
         <sz val="9"/>
         <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
         <name val="굴림"/>
         <family val="3"/>
         <charset val="129"/>
@@ -768,32 +798,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AD971FE-E9D9-4304-AD63-B91A3BA2AB06}" name="표2_23" displayName="표2_23" ref="A2:C5" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AD971FE-E9D9-4304-AD63-B91A3BA2AB06}" name="표2_23" displayName="표2_23" ref="A2:C5" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A2:C5" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E93A175E-9C20-444E-90EA-E3C8EAFA298A}" name="Enum 명" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{E93A175E-9C20-444E-90EA-E3C8EAFA298A}" name="Enum 명" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{402C608F-E3F3-4B58-A699-18ED284F2479}" name="enum 종류"/>
-    <tableColumn id="4" xr3:uid="{A1BD8B51-D258-4FF4-9AB7-EED31839F5D9}" name="설명" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A1BD8B51-D258-4FF4-9AB7-EED31839F5D9}" name="설명" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:K9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A3:K9" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="MonsterType" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="Attack" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="Defence" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{9F57AD62-D314-4A03-B248-A2DA32DF28FD}" name="EXP" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{0FD9A524-D2B8-4291-9813-0D0344D525BE}" name="Score" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{E36DCC1B-0496-49B1-A70D-6806B2FDF9F6}" name="Skill" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="PrefabPath" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:L9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A3:L9" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="MonsterType" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="Attack" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{457286E6-BDB4-4388-95B8-1A8AEFA46CE0}" name="RangeAttack" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="Defence" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9F57AD62-D314-4A03-B248-A2DA32DF28FD}" name="EXP" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{0FD9A524-D2B8-4291-9813-0D0344D525BE}" name="Score" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{E36DCC1B-0496-49B1-A70D-6806B2FDF9F6}" name="Skill" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="PrefabPath" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1172,10 +1203,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1185,13 +1216,14 @@
     <col min="3" max="3" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="8" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="47.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="14.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="9" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="47.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1225,8 +1257,11 @@
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1237,16 +1272,16 @@
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>2</v>
@@ -1258,10 +1293,13 @@
         <v>2</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1277,26 +1315,29 @@
       <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
@@ -1312,8 +1353,8 @@
       <c r="E4" s="3">
         <v>100</v>
       </c>
-      <c r="F4" s="3">
-        <v>10</v>
+      <c r="F4" s="1">
+        <v>100</v>
       </c>
       <c r="G4" s="3">
         <v>10</v>
@@ -1325,13 +1366,16 @@
         <v>10</v>
       </c>
       <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1011</v>
       </c>
@@ -1347,8 +1391,8 @@
       <c r="E5" s="3">
         <v>100</v>
       </c>
-      <c r="F5" s="3">
-        <v>10</v>
+      <c r="F5" s="1">
+        <v>100</v>
       </c>
       <c r="G5" s="3">
         <v>10</v>
@@ -1360,13 +1404,16 @@
         <v>10</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1012</v>
       </c>
@@ -1382,8 +1429,8 @@
       <c r="E6" s="3">
         <v>100</v>
       </c>
-      <c r="F6" s="3">
-        <v>10</v>
+      <c r="F6" s="1">
+        <v>100</v>
       </c>
       <c r="G6" s="3">
         <v>10</v>
@@ -1395,13 +1442,16 @@
         <v>10</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1013</v>
       </c>
@@ -1417,7 +1467,7 @@
       <c r="E7" s="3">
         <v>100</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="3">
@@ -1432,11 +1482,14 @@
       <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1014</v>
       </c>
@@ -1452,7 +1505,7 @@
       <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="3">
@@ -1467,11 +1520,14 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1015</v>
       </c>
@@ -1487,11 +1543,11 @@
       <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>50</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -1500,9 +1556,12 @@
         <v>100</v>
       </c>
       <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>10008</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="L9" s="3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCBDEC7-87CD-449B-92C2-C4E53A9BD917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FBDA15-0873-4C0B-9C12-57D2DAC85399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="4" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,10 +83,6 @@
   </si>
   <si>
     <t>Gold</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -384,7 +380,102 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -435,121 +526,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
         <color theme="1"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <name val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
         <name val="굴림"/>
         <family val="3"/>
         <charset val="129"/>
@@ -798,33 +775,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AD971FE-E9D9-4304-AD63-B91A3BA2AB06}" name="표2_23" displayName="표2_23" ref="A2:C5" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AD971FE-E9D9-4304-AD63-B91A3BA2AB06}" name="표2_23" displayName="표2_23" ref="A2:C5" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
   <autoFilter ref="A2:C5" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E93A175E-9C20-444E-90EA-E3C8EAFA298A}" name="Enum 명" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{E93A175E-9C20-444E-90EA-E3C8EAFA298A}" name="Enum 명" dataDxfId="14"/>
     <tableColumn id="2" xr3:uid="{402C608F-E3F3-4B58-A699-18ED284F2479}" name="enum 종류"/>
-    <tableColumn id="4" xr3:uid="{A1BD8B51-D258-4FF4-9AB7-EED31839F5D9}" name="설명" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{A1BD8B51-D258-4FF4-9AB7-EED31839F5D9}" name="설명" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:L9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A3:L9" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="MonsterType" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="Attack" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{457286E6-BDB4-4388-95B8-1A8AEFA46CE0}" name="RangeAttack" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="Defence" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{9F57AD62-D314-4A03-B248-A2DA32DF28FD}" name="EXP" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{0FD9A524-D2B8-4291-9813-0D0344D525BE}" name="Score" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{E36DCC1B-0496-49B1-A70D-6806B2FDF9F6}" name="Skill" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="PrefabPath" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:K9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A3:K9" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="MonsterType" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="Attack" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{457286E6-BDB4-4388-95B8-1A8AEFA46CE0}" name="RangeAttack" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="Defence" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{9F57AD62-D314-4A03-B248-A2DA32DF28FD}" name="EXP" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{0FD9A524-D2B8-4291-9813-0D0344D525BE}" name="Score" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="PrefabPath" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1133,63 +1109,63 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.69921875" style="5"/>
+    <col min="2" max="2" width="14.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
+      <c r="B2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="3" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1203,27 +1179,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="9" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="47.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="47.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1257,11 +1233,8 @@
       <c r="K1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1269,19 +1242,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>2</v>
@@ -1293,13 +1266,10 @@
         <v>2</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1307,16 +1277,16 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
@@ -1328,16 +1298,13 @@
         <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
@@ -1345,7 +1312,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>200</v>
@@ -1368,14 +1335,11 @@
       <c r="J4" s="3">
         <v>10</v>
       </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>32</v>
+      <c r="K4" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1011</v>
       </c>
@@ -1383,7 +1347,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1">
         <v>200</v>
@@ -1406,14 +1370,11 @@
       <c r="J5" s="3">
         <v>10</v>
       </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>33</v>
+      <c r="K5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1012</v>
       </c>
@@ -1421,7 +1382,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1">
         <v>200</v>
@@ -1444,14 +1405,11 @@
       <c r="J6" s="3">
         <v>10</v>
       </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>34</v>
+      <c r="K6" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1013</v>
       </c>
@@ -1459,7 +1417,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
@@ -1482,14 +1440,11 @@
       <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>35</v>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1014</v>
       </c>
@@ -1497,7 +1452,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
@@ -1520,22 +1475,19 @@
       <c r="J8" s="3">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>36</v>
+      <c r="K8" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="10.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1015</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D9" s="1">
         <v>1000</v>
@@ -1558,11 +1510,8 @@
       <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>10008</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>39</v>
+      <c r="K9" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1free\OneDrive\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FBDA15-0873-4C0B-9C12-57D2DAC85399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E72228-F5B4-483C-BDFA-B86A4D0DB536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="4" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -186,6 +186,37 @@
   </si>
   <si>
     <t>RangeAttack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeAttackSpeedRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeAttackRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeAttackProjectileSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeAttackProjectileSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeAttackPrefabPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills/BigFireballPurpleOBJ</t>
+  </si>
+  <si>
+    <t>Skills/BigFireballPurpleOBJ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +411,102 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -775,27 +901,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AD971FE-E9D9-4304-AD63-B91A3BA2AB06}" name="표2_23" displayName="표2_23" ref="A2:C5" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AD971FE-E9D9-4304-AD63-B91A3BA2AB06}" name="표2_23" displayName="표2_23" ref="A2:C5" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A2:C5" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E93A175E-9C20-444E-90EA-E3C8EAFA298A}" name="Enum 명" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{E93A175E-9C20-444E-90EA-E3C8EAFA298A}" name="Enum 명" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{402C608F-E3F3-4B58-A699-18ED284F2479}" name="enum 종류"/>
-    <tableColumn id="4" xr3:uid="{A1BD8B51-D258-4FF4-9AB7-EED31839F5D9}" name="설명" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A1BD8B51-D258-4FF4-9AB7-EED31839F5D9}" name="설명" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:K9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A3:K9" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="MonsterType" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="Attack" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{457286E6-BDB4-4388-95B8-1A8AEFA46CE0}" name="RangeAttack" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:P9" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A3:P9" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="MonsterType" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="Attack" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{457286E6-BDB4-4388-95B8-1A8AEFA46CE0}" name="RangeAttack" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{E77F041B-1F90-4CDD-BB5F-B36175EB6842}" name="RangeAttackSpeedRate" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{26826332-EE4E-49A9-96B8-64D1E9AAC181}" name="RangeAttackRange" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{EBE6C0A4-614C-47E3-AB0B-6439B5AE7DC1}" name="RangeAttackProjectileSpeed" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{BB095011-AF61-49ED-9F6A-34AD5C22E290}" name="RangeAttackProjectileSize" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{AB27B4E5-DF77-4268-86E3-32873C3A4CAE}" name="RangeAttackPrefabPath" dataDxfId="5"/>
     <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="Defence" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9F57AD62-D314-4A03-B248-A2DA32DF28FD}" name="EXP" dataDxfId="3"/>
     <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="2"/>
@@ -1179,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1193,13 +1324,19 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
-    <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="47.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="17.625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="26.375" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="14" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="38.75" customWidth="1"/>
+    <col min="21" max="21" width="47.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1219,22 +1356,41 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1257,19 +1413,38 @@
         <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1289,22 +1464,41 @@
         <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
@@ -1323,23 +1517,42 @@
       <c r="F4" s="1">
         <v>100</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3">
         <v>10</v>
       </c>
-      <c r="H4" s="3">
+      <c r="M4" s="3">
         <v>10</v>
       </c>
-      <c r="I4" s="3">
+      <c r="N4" s="3">
         <v>10</v>
       </c>
-      <c r="J4" s="3">
+      <c r="O4" s="3">
         <v>10</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1011</v>
       </c>
@@ -1358,23 +1571,42 @@
       <c r="F5" s="1">
         <v>100</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3">
         <v>10</v>
       </c>
-      <c r="H5" s="3">
+      <c r="M5" s="3">
         <v>10</v>
       </c>
-      <c r="I5" s="3">
+      <c r="N5" s="3">
         <v>10</v>
       </c>
-      <c r="J5" s="3">
+      <c r="O5" s="3">
         <v>10</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1012</v>
       </c>
@@ -1394,22 +1626,41 @@
         <v>100</v>
       </c>
       <c r="G6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>9</v>
+      </c>
+      <c r="I6" s="3">
+        <v>6</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="3">
         <v>10</v>
       </c>
-      <c r="H6" s="3">
+      <c r="M6" s="3">
         <v>10</v>
       </c>
-      <c r="I6" s="3">
+      <c r="N6" s="3">
         <v>10</v>
       </c>
-      <c r="J6" s="3">
+      <c r="O6" s="3">
         <v>10</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1013</v>
       </c>
@@ -1428,23 +1679,42 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
+      <c r="G7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="K7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1014</v>
       </c>
@@ -1463,23 +1733,42 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="K8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1015</v>
       </c>
@@ -1496,23 +1785,42 @@
         <v>200</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>12</v>
+      </c>
+      <c r="I9" s="3">
+        <v>9</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="3">
         <v>50</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1free\OneDrive\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E72228-F5B4-483C-BDFA-B86A4D0DB536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31F8E1A-169B-4840-997C-A39A9214BED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="32790" yWindow="2355" windowWidth="24495" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="4" state="hidden" r:id="rId1"/>
@@ -1310,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1332,11 +1332,10 @@
     <col min="12" max="12" width="9" style="1"/>
     <col min="14" max="15" width="9" style="1"/>
     <col min="16" max="16" width="38.75" customWidth="1"/>
-    <col min="21" max="21" width="47.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1385,12 +1384,8 @@
       <c r="P1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1439,12 +1434,8 @@
       <c r="P2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1493,12 +1484,8 @@
       <c r="P3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
@@ -1547,12 +1534,8 @@
       <c r="P4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1011</v>
       </c>
@@ -1601,12 +1584,8 @@
       <c r="P5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1012</v>
       </c>
@@ -1655,12 +1634,8 @@
       <c r="P6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1013</v>
       </c>
@@ -1709,12 +1684,8 @@
       <c r="P7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1014</v>
       </c>
@@ -1763,12 +1734,8 @@
       <c r="P8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1015</v>
       </c>
@@ -1817,10 +1784,6 @@
       <c r="P9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1free\OneDrive\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31F8E1A-169B-4840-997C-A39A9214BED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E83195-C943-4CCE-9265-0B6DCAA49808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32790" yWindow="2355" windowWidth="24495" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="6150" yWindow="3120" windowWidth="29715" windowHeight="17880" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="MonsterTable" sheetId="1" r:id="rId2"/>
+    <sheet name="MonsterSkillTable" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>ALL</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -189,34 +190,50 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RangeAttackSpeedRate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RangeAttackRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RangeAttackProjectileSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RangeAttackProjectileSize</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>RangeAttackPrefabPath</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Skills/BigFireballPurpleOBJ</t>
-  </si>
-  <si>
-    <t>Skills/BigFireballPurpleOBJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1_MonsterSkill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2_MonsterSkill</t>
+  </si>
+  <si>
+    <t>3_1_MonsterSkill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2_MonsterSkill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_3_MonsterSkill</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterSkillProjectileSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterSkillProjectileSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterSkillRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterSkillSpeedRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterSkillAttack</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +428,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="29">
     <dxf>
       <font>
         <b val="0"/>
@@ -506,6 +523,107 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="0"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1" tint="0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -901,37 +1019,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AD971FE-E9D9-4304-AD63-B91A3BA2AB06}" name="표2_23" displayName="표2_23" ref="A2:C5" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9AD971FE-E9D9-4304-AD63-B91A3BA2AB06}" name="표2_23" displayName="표2_23" ref="A2:C5" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
   <autoFilter ref="A2:C5" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E93A175E-9C20-444E-90EA-E3C8EAFA298A}" name="Enum 명" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{E93A175E-9C20-444E-90EA-E3C8EAFA298A}" name="Enum 명" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{402C608F-E3F3-4B58-A699-18ED284F2479}" name="enum 종류"/>
-    <tableColumn id="4" xr3:uid="{A1BD8B51-D258-4FF4-9AB7-EED31839F5D9}" name="설명" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{A1BD8B51-D258-4FF4-9AB7-EED31839F5D9}" name="설명" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:P9" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A3:P9" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="MonsterType" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="Attack" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{457286E6-BDB4-4388-95B8-1A8AEFA46CE0}" name="RangeAttack" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{E77F041B-1F90-4CDD-BB5F-B36175EB6842}" name="RangeAttackSpeedRate" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{26826332-EE4E-49A9-96B8-64D1E9AAC181}" name="RangeAttackRange" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{EBE6C0A4-614C-47E3-AB0B-6439B5AE7DC1}" name="RangeAttackProjectileSpeed" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{BB095011-AF61-49ED-9F6A-34AD5C22E290}" name="RangeAttackProjectileSize" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{AB27B4E5-DF77-4268-86E3-32873C3A4CAE}" name="RangeAttackPrefabPath" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="Defence" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{9F57AD62-D314-4A03-B248-A2DA32DF28FD}" name="EXP" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{0FD9A524-D2B8-4291-9813-0D0344D525BE}" name="Score" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="PrefabPath" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}" name="표1_34" displayName="표1_34" ref="A3:K9" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A3:K9" xr:uid="{93CEDD51-018B-40C2-A1BF-4546163851E9}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{899D69F7-109A-47B1-AEB6-5B00A0823375}" name="ID" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{9D7021A8-FCD0-47BE-BD07-A71934E8B48C}" name="Name" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{3399E96A-D574-4163-86FC-D4BF12E916EC}" name="MonsterType" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{0A9719C1-EBB8-48E1-AA1D-B0DC7BACB3F7}" name="MaxHP" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{1D0E2B33-958C-43AA-9E59-00A8ABD94F70}" name="Attack" dataDxfId="16"/>
+    <tableColumn id="13" xr3:uid="{457286E6-BDB4-4388-95B8-1A8AEFA46CE0}" name="RangeAttack" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{BA14DB0D-7970-435F-95B2-4D9F0B72F8B9}" name="Defence" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{9F57AD62-D314-4A03-B248-A2DA32DF28FD}" name="EXP" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{3C3079A0-745F-43CF-8D70-DEC8EED98C1F}" name="Gold" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{0FD9A524-D2B8-4291-9813-0D0344D525BE}" name="Score" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{4330CFAE-E2F6-4F44-B716-016711322992}" name="PrefabPath" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{962167E3-8375-4964-A075-1DB5BA642F72}" name="표1_343" displayName="표1_343" ref="A3:H8" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A3:H8" xr:uid="{962167E3-8375-4964-A075-1DB5BA642F72}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{2E83510E-7851-431C-8247-D1DC224D839D}" name="ID" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{299311A2-7244-403A-BB22-29073C79B007}" name="Name" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{D16880CF-EA51-4F86-83A3-CB2950A4C442}" name="MonsterSkillAttack" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{E1DBA575-9BF7-4ACB-BE67-098607F719C3}" name="MonsterSkillSpeedRate" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{88205CB7-2ABC-4FD5-B5AF-F5595BB2B50B}" name="MonsterSkillRange" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{69A102A3-CEFE-44D7-8AA4-28E11569BE04}" name="MonsterSkillProjectileSpeed" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{DB202867-F550-4808-AAFA-241A5EFDA75C}" name="MonsterSkillProjectileSize" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{86EC5FDC-6ECF-4ED8-ACD1-B0BC3F1404BE}" name="RangeAttackPrefabPath" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1310,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1324,18 +1454,13 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="26.375" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="16.875" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="14" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="38.75" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="1"/>
+    <col min="9" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="38.75" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1355,37 +1480,22 @@
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1408,34 +1518,19 @@
         <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1455,37 +1550,22 @@
         <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
@@ -1504,38 +1584,23 @@
       <c r="F4" s="1">
         <v>100</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>41</v>
+      <c r="G4" s="3">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3">
+        <v>10</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="3">
-        <v>10</v>
-      </c>
-      <c r="M4" s="3">
-        <v>10</v>
-      </c>
-      <c r="N4" s="3">
-        <v>10</v>
-      </c>
-      <c r="O4" s="3">
-        <v>10</v>
-      </c>
-      <c r="P4" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1011</v>
       </c>
@@ -1554,38 +1619,23 @@
       <c r="F5" s="1">
         <v>100</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>41</v>
+      <c r="G5" s="3">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
+        <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="3">
-        <v>10</v>
-      </c>
-      <c r="M5" s="3">
-        <v>10</v>
-      </c>
-      <c r="N5" s="3">
-        <v>10</v>
-      </c>
-      <c r="O5" s="3">
-        <v>10</v>
-      </c>
-      <c r="P5" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1012</v>
       </c>
@@ -1605,37 +1655,22 @@
         <v>100</v>
       </c>
       <c r="G6" s="3">
-        <v>0.3</v>
+        <v>10</v>
       </c>
       <c r="H6" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I6" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J6" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="3">
-        <v>10</v>
-      </c>
-      <c r="M6" s="3">
-        <v>10</v>
-      </c>
-      <c r="N6" s="3">
-        <v>10</v>
-      </c>
-      <c r="O6" s="3">
-        <v>10</v>
-      </c>
-      <c r="P6" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1013</v>
       </c>
@@ -1654,38 +1689,23 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>41</v>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1014</v>
       </c>
@@ -1704,38 +1724,23 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>41</v>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1015</v>
       </c>
@@ -1755,35 +1760,265 @@
         <v>200</v>
       </c>
       <c r="G9" s="3">
+        <v>50</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F41EFC-B4E4-4B06-882A-188E1EE7DA5E}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="1">
+        <v>80</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3">
         <v>0.5</v>
       </c>
-      <c r="H9" s="3">
+      <c r="E5" s="3">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="1">
+        <v>150</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>3003</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="1">
+        <v>200</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <v>12</v>
       </c>
-      <c r="I9" s="3">
-        <v>9</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="F7" s="3">
+        <v>8</v>
+      </c>
+      <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="H7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>3004</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L9" s="3">
-        <v>50</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
-      <c r="O9" s="3">
-        <v>100</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="C8" s="1">
+        <v>250</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1free\OneDrive\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E83195-C943-4CCE-9265-0B6DCAA49808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C67B668-A7AA-485A-917E-D75C376C398B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="3120" windowWidth="29715" windowHeight="17880" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="1155" yWindow="3705" windowWidth="20595" windowHeight="13260" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="4" state="hidden" r:id="rId1"/>
@@ -1442,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255DB810-04DE-4682-BF12-874E2434A14F}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1576,7 +1576,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="3">
         <v>100</v>
@@ -1611,7 +1611,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="1">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="E5" s="3">
         <v>100</v>
@@ -1646,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="1">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="E6" s="3">
         <v>100</v>
@@ -1751,7 +1751,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>

--- a/Assets/ExcelDatas/MonsterData.xlsx
+++ b/Assets/ExcelDatas/MonsterData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C67B668-A7AA-485A-917E-D75C376C398B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE07C649-69C5-4EF7-B114-5FA982AEFBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="3705" windowWidth="20595" windowHeight="13260" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
+    <workbookView xWindow="1920" yWindow="1704" windowWidth="16788" windowHeight="11256" firstSheet="1" activeTab="1" xr2:uid="{DFC90301-BE78-4300-908A-B9D6BBD09961}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="4" state="hidden" r:id="rId1"/>
@@ -1370,15 +1370,15 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.75" style="5"/>
+    <col min="2" max="2" width="14.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9"/>
       <c r="B4" s="11" t="s">
         <v>19</v>
@@ -1420,7 +1420,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
       <c r="B5" s="11" t="s">
         <v>16</v>
@@ -1443,24 +1443,24 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="9" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="38.75" customWidth="1"/>
+    <col min="11" max="11" width="38.69921875" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1010</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1011</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1012</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1013</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1014</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="11.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="10.8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1015</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="1">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="E9" s="3">
         <v>200</v>
@@ -1792,20 +1792,20 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="20" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.09765625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3000</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3001</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>3002</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>3003</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>3004</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
